--- a/data/PHM-EVD-linelist-2017-11-25.xlsx
+++ b/data/PHM-EVD-linelist-2017-11-25.xlsx
@@ -26,25 +26,31 @@
     <t>age</t>
   </si>
   <si>
-    <t>c61339</t>
-  </si>
-  <si>
-    <t>b8551b</t>
-  </si>
-  <si>
-    <t>1b6cc2</t>
+    <t>39e9dc</t>
+  </si>
+  <si>
+    <t>664549</t>
+  </si>
+  <si>
+    <t>b4d8aa</t>
+  </si>
+  <si>
+    <t>51883d</t>
   </si>
   <si>
     <t>947e40</t>
   </si>
   <si>
+    <t>9aa197</t>
+  </si>
+  <si>
     <t>e4b0a2</t>
   </si>
   <si>
     <t>af0ac0</t>
   </si>
   <si>
-    <t>d53618</t>
+    <t>185911</t>
   </si>
   <si>
     <t>601d2e</t>
@@ -54,12 +60,6 @@
   </si>
   <si>
     <t>e399b1</t>
-  </si>
-  <si>
-    <t>3d8cf7</t>
-  </si>
-  <si>
-    <t>cca468</t>
   </si>
   <si>
     <t>e37897</t>
@@ -253,13 +253,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43021.0</v>
+        <v>43018.0</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="3">
@@ -267,13 +267,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>43027.0</v>
+        <v>43024.0</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="4">
@@ -281,13 +281,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="2">
-        <v>43028.0</v>
+        <v>43025.0</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="5">
@@ -295,7 +295,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n" s="2">
-        <v>43029.0</v>
+        <v>43026.0</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -309,13 +309,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n" s="2">
-        <v>43031.0</v>
+        <v>43028.0</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>32.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -323,13 +323,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n" s="2">
-        <v>43031.0</v>
+        <v>43028.0</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>54.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
@@ -337,13 +337,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n" s="2">
-        <v>43032.0</v>
+        <v>43029.0</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -351,13 +351,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n" s="2">
-        <v>43032.0</v>
+        <v>43029.0</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -365,13 +365,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n" s="2">
-        <v>43032.0</v>
+        <v>43029.0</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="n">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="11">
@@ -379,13 +379,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n" s="2">
-        <v>43033.0</v>
+        <v>43030.0</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="12">
@@ -393,13 +393,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n" s="2">
-        <v>43033.0</v>
+        <v>43030.0</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" t="n">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="13">
@@ -407,13 +407,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n" s="2">
-        <v>43034.0</v>
+        <v>43031.0</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +427,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
@@ -438,10 +438,10 @@
         <v>43036.0</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" t="n">
-        <v>52.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="16">
@@ -455,7 +455,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="n">
-        <v>28.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="17">
@@ -469,7 +469,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="18">
@@ -483,7 +483,7 @@
         <v>55</v>
       </c>
       <c r="D18" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -494,7 +494,7 @@
         <v>43040.0</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="n">
         <v>28.0</v>
@@ -508,10 +508,10 @@
         <v>43041.0</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="21">
@@ -525,7 +525,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +536,7 @@
         <v>43043.0</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" t="n">
         <v>29.0</v>
@@ -553,7 +553,7 @@
         <v>55</v>
       </c>
       <c r="D23" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="24">
@@ -567,7 +567,7 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="25">
@@ -581,7 +581,7 @@
         <v>55</v>
       </c>
       <c r="D25" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="26">
@@ -595,7 +595,7 @@
         <v>54</v>
       </c>
       <c r="D26" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="27">
@@ -609,7 +609,7 @@
         <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="28">
@@ -620,10 +620,10 @@
         <v>43047.0</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="29">
@@ -637,7 +637,7 @@
         <v>54</v>
       </c>
       <c r="D29" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="30">
@@ -648,10 +648,10 @@
         <v>43048.0</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D30" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -665,7 +665,7 @@
         <v>54</v>
       </c>
       <c r="D31" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -676,10 +676,10 @@
         <v>43049.0</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="33">
@@ -693,7 +693,7 @@
         <v>55</v>
       </c>
       <c r="D33" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="34">
@@ -704,10 +704,10 @@
         <v>43051.0</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="35">
@@ -721,7 +721,7 @@
         <v>54</v>
       </c>
       <c r="D35" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="36">
@@ -735,7 +735,7 @@
         <v>55</v>
       </c>
       <c r="D36" t="n">
-        <v>10.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="37">
@@ -746,10 +746,10 @@
         <v>43053.0</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" t="n">
-        <v>37.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="38">
@@ -763,7 +763,7 @@
         <v>54</v>
       </c>
       <c r="D38" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="39">
@@ -774,10 +774,10 @@
         <v>43055.0</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +791,7 @@
         <v>55</v>
       </c>
       <c r="D40" t="n">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,10 +802,10 @@
         <v>43055.0</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="42">
@@ -816,10 +816,10 @@
         <v>43055.0</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="43">
@@ -833,7 +833,7 @@
         <v>54</v>
       </c>
       <c r="D43" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="44">
@@ -844,10 +844,10 @@
         <v>43057.0</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="45">
@@ -861,7 +861,7 @@
         <v>55</v>
       </c>
       <c r="D45" t="n">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="46">
@@ -872,10 +872,10 @@
         <v>43058.0</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="47">
@@ -886,10 +886,10 @@
         <v>43058.0</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="48">
@@ -900,10 +900,10 @@
         <v>43059.0</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="49">
@@ -917,7 +917,7 @@
         <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>28.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="50">
@@ -928,10 +928,10 @@
         <v>43062.0</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="51">
@@ -942,10 +942,10 @@
         <v>43063.0</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
